--- a/data/Cam_ElectionSeason.xlsx
+++ b/data/Cam_ElectionSeason.xlsx
@@ -9,6 +9,9 @@
   <sheets>
     <sheet sheetId="1" r:id="rId1" name="Cam_ElectionSeason"/>
   </sheets>
+  <definedNames>
+    <definedName name="Cam_ElectionSeason">'Cam_ElectionSeason'!$A$1:$D$12</definedName>
+  </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
 </file>
@@ -23,37 +26,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000" tint="0"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000" tint="0"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000" tint="0"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000" tint="0"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000" tint="0"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000" tint="0"/>
-      <name val="Calibri"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -61,42 +33,6 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC0C0C0"/>
-        <bgColor rgb="FFC0C0C0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -107,98 +43,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFD0D7E5"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFD0D7E5"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFD0D7E5"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFD0D7E5"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFD0D7E5"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFD0D7E5"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFD0D7E5"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFD0D7E5"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFD0D7E5"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFD0D7E5"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFD0D7E5"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFD0D7E5"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFD0D7E5"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFD0D7E5"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFD0D7E5"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFD0D7E5"/>
-      </bottom>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyFill="1" applyProtection="1" applyAlignment="1" applyFont="1" xfId="0">
-      <alignment wrapText="0" vertical="center" horizontal="left"/>
-      <protection locked="1" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyFill="1" applyProtection="1" applyBorder="1" applyAlignment="1" applyFont="1" xfId="0">
-      <alignment wrapText="0" vertical="center" horizontal="center"/>
-      <protection locked="1" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyFill="1" applyProtection="1" applyBorder="1" applyAlignment="1" applyFont="1" xfId="0">
-      <alignment wrapText="0" vertical="center" horizontal="center"/>
-      <protection locked="1" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyFill="1" applyProtection="1" applyBorder="1" applyAlignment="1" applyFont="1" xfId="0">
-      <alignment wrapText="1" vertical="center" horizontal="right"/>
-      <protection locked="1" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" applyFill="1" applyProtection="1" applyBorder="1" applyAlignment="1" applyFont="1" xfId="0">
-      <alignment wrapText="1" vertical="center" horizontal="general"/>
-      <protection locked="1" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" applyFill="1" applyProtection="1" applyBorder="1" applyAlignment="1" applyFont="1" xfId="0">
-      <alignment wrapText="1" vertical="center" horizontal="right"/>
-      <protection locked="1" hidden="0"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -493,199 +343,209 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col customWidth="true" min="1" max="1" width="14.0625"/>
-    <col customWidth="true" min="2" max="2" width="14.0625"/>
-    <col customWidth="true" min="3" max="3" width="14.0625"/>
-    <col customWidth="true" min="4" max="4" width="14.0625"/>
-  </cols>
   <sheetData>
     <row outlineLevel="0" r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="0" t="inlineStr">
         <is>
           <t>ElectionSeasonId</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="0" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="0" t="inlineStr">
         <is>
           <t>StatusId</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="0" t="inlineStr">
         <is>
           <t>IsSpecial</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="2">
-      <c r="A2" s="4">
+      <c r="A2" s="0">
         <v>10</v>
       </c>
-      <c r="B2" s="5" t="inlineStr">
+      <c r="B2" s="0" t="inlineStr">
         <is>
           <t>2004</t>
         </is>
       </c>
-      <c r="C2" s="4">
-        <v>1</v>
-      </c>
-      <c r="D2" s="6">
+      <c r="C2" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2" s="0">
         <v>0</v>
       </c>
     </row>
     <row outlineLevel="0" r="3">
-      <c r="A3" s="4">
+      <c r="A3" s="0">
         <v>11</v>
       </c>
-      <c r="B3" s="5" t="inlineStr">
+      <c r="B3" s="0" t="inlineStr">
         <is>
           <t>2006</t>
         </is>
       </c>
-      <c r="C3" s="4">
-        <v>1</v>
-      </c>
-      <c r="D3" s="6">
+      <c r="C3" s="0">
+        <v>1</v>
+      </c>
+      <c r="D3" s="0">
         <v>0</v>
       </c>
     </row>
     <row outlineLevel="0" r="4">
-      <c r="A4" s="4">
+      <c r="A4" s="0">
         <v>12</v>
       </c>
-      <c r="B4" s="5" t="inlineStr">
+      <c r="B4" s="0" t="inlineStr">
         <is>
           <t>2008</t>
         </is>
       </c>
-      <c r="C4" s="4">
-        <v>1</v>
-      </c>
-      <c r="D4" s="6">
+      <c r="C4" s="0">
+        <v>1</v>
+      </c>
+      <c r="D4" s="0">
         <v>0</v>
       </c>
     </row>
     <row outlineLevel="0" r="5">
-      <c r="A5" s="4">
+      <c r="A5" s="0">
         <v>13</v>
       </c>
-      <c r="B5" s="5" t="inlineStr">
+      <c r="B5" s="0" t="inlineStr">
         <is>
           <t>2010</t>
         </is>
       </c>
-      <c r="C5" s="4">
-        <v>1</v>
-      </c>
-      <c r="D5" s="6">
+      <c r="C5" s="0">
+        <v>1</v>
+      </c>
+      <c r="D5" s="0">
         <v>0</v>
       </c>
     </row>
     <row outlineLevel="0" r="6">
-      <c r="A6" s="4">
+      <c r="A6" s="0">
         <v>15</v>
       </c>
-      <c r="B6" s="5" t="inlineStr">
+      <c r="B6" s="0" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="C6" s="4">
-        <v>1</v>
-      </c>
-      <c r="D6" s="6">
+      <c r="C6" s="0">
+        <v>1</v>
+      </c>
+      <c r="D6" s="0">
         <v>0</v>
       </c>
     </row>
     <row outlineLevel="0" r="7">
-      <c r="A7" s="4">
+      <c r="A7" s="0">
         <v>16</v>
       </c>
-      <c r="B7" s="5" t="inlineStr">
+      <c r="B7" s="0" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="C7" s="4">
-        <v>1</v>
-      </c>
-      <c r="D7" s="6">
+      <c r="C7" s="0">
+        <v>1</v>
+      </c>
+      <c r="D7" s="0">
         <v>0</v>
       </c>
     </row>
     <row outlineLevel="0" r="8">
-      <c r="A8" s="4">
+      <c r="A8" s="0">
         <v>17</v>
       </c>
-      <c r="B8" s="5" t="inlineStr">
+      <c r="B8" s="0" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="C8" s="4">
-        <v>1</v>
-      </c>
-      <c r="D8" s="6">
+      <c r="C8" s="0">
+        <v>1</v>
+      </c>
+      <c r="D8" s="0">
         <v>0</v>
       </c>
     </row>
     <row outlineLevel="0" r="9">
-      <c r="A9" s="4">
+      <c r="A9" s="0">
         <v>18</v>
       </c>
-      <c r="B9" s="5" t="inlineStr">
+      <c r="B9" s="0" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="C9" s="4">
-        <v>1</v>
-      </c>
-      <c r="D9" s="6">
+      <c r="C9" s="0">
+        <v>1</v>
+      </c>
+      <c r="D9" s="0">
         <v>0</v>
       </c>
     </row>
     <row outlineLevel="0" r="10">
-      <c r="A10" s="4">
+      <c r="A10" s="0">
         <v>19</v>
       </c>
-      <c r="B10" s="5" t="inlineStr">
+      <c r="B10" s="0" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="C10" s="4">
-        <v>1</v>
-      </c>
-      <c r="D10" s="6">
+      <c r="C10" s="0">
+        <v>1</v>
+      </c>
+      <c r="D10" s="0">
         <v>0</v>
       </c>
     </row>
     <row outlineLevel="0" r="11">
-      <c r="A11" s="4">
+      <c r="A11" s="0">
         <v>20</v>
       </c>
-      <c r="B11" s="5" t="inlineStr">
+      <c r="B11" s="0" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="C11" s="4">
-        <v>1</v>
-      </c>
-      <c r="D11" s="6">
+      <c r="C11" s="0">
+        <v>1</v>
+      </c>
+      <c r="D11" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="12">
+      <c r="A12" s="0">
+        <v>21</v>
+      </c>
+      <c r="B12" s="0" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="C12" s="0">
+        <v>1</v>
+      </c>
+      <c r="D12" s="0">
         <v>0</v>
       </c>
     </row>

--- a/data/Cam_ElectionSeason.xlsx
+++ b/data/Cam_ElectionSeason.xlsx
@@ -9,9 +9,6 @@
   <sheets>
     <sheet sheetId="1" r:id="rId1" name="Cam_ElectionSeason"/>
   </sheets>
-  <definedNames>
-    <definedName name="Cam_ElectionSeason">'Cam_ElectionSeason'!$A$1:$D$12</definedName>
-  </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
 </file>
@@ -26,6 +23,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000" tint="0"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000" tint="0"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000" tint="0"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000" tint="0"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000" tint="0"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000" tint="0"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -33,6 +61,42 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC0C0C0"/>
+        <bgColor rgb="FFC0C0C0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -43,12 +107,98 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD0D7E5"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFD0D7E5"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFD0D7E5"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFD0D7E5"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD0D7E5"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFD0D7E5"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFD0D7E5"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFD0D7E5"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD0D7E5"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFD0D7E5"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFD0D7E5"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFD0D7E5"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD0D7E5"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFD0D7E5"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFD0D7E5"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFD0D7E5"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyFill="1" applyProtection="1" applyAlignment="1" applyFont="1" xfId="0">
+      <alignment wrapText="0" vertical="center" horizontal="left"/>
+      <protection locked="1" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyFill="1" applyProtection="1" applyBorder="1" applyAlignment="1" applyFont="1" xfId="0">
+      <alignment wrapText="0" vertical="center" horizontal="center"/>
+      <protection locked="1" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyFill="1" applyProtection="1" applyBorder="1" applyAlignment="1" applyFont="1" xfId="0">
+      <alignment wrapText="0" vertical="center" horizontal="center"/>
+      <protection locked="1" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyFill="1" applyProtection="1" applyBorder="1" applyAlignment="1" applyFont="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="right"/>
+      <protection locked="1" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" applyFill="1" applyProtection="1" applyBorder="1" applyAlignment="1" applyFont="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="general"/>
+      <protection locked="1" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" applyFill="1" applyProtection="1" applyBorder="1" applyAlignment="1" applyFont="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="right"/>
+      <protection locked="1" hidden="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -350,202 +500,208 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="true" min="1" max="1" width="14.0625"/>
+    <col customWidth="true" min="2" max="2" width="14.0625"/>
+    <col customWidth="true" min="3" max="3" width="14.0625"/>
+    <col customWidth="true" min="4" max="4" width="14.0625"/>
+  </cols>
   <sheetData>
     <row outlineLevel="0" r="1">
-      <c r="A1" s="0" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>ElectionSeasonId</t>
         </is>
       </c>
-      <c r="B1" s="0" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="C1" s="0" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>StatusId</t>
         </is>
       </c>
-      <c r="D1" s="0" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>IsSpecial</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="2">
-      <c r="A2" s="0">
+      <c r="A2" s="4">
         <v>10</v>
       </c>
-      <c r="B2" s="0" t="inlineStr">
+      <c r="B2" s="5" t="inlineStr">
         <is>
           <t>2004</t>
         </is>
       </c>
-      <c r="C2" s="0">
-        <v>1</v>
-      </c>
-      <c r="D2" s="0">
+      <c r="C2" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2" s="6">
         <v>0</v>
       </c>
     </row>
     <row outlineLevel="0" r="3">
-      <c r="A3" s="0">
+      <c r="A3" s="4">
         <v>11</v>
       </c>
-      <c r="B3" s="0" t="inlineStr">
+      <c r="B3" s="5" t="inlineStr">
         <is>
           <t>2006</t>
         </is>
       </c>
-      <c r="C3" s="0">
-        <v>1</v>
-      </c>
-      <c r="D3" s="0">
+      <c r="C3" s="4">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6">
         <v>0</v>
       </c>
     </row>
     <row outlineLevel="0" r="4">
-      <c r="A4" s="0">
+      <c r="A4" s="4">
         <v>12</v>
       </c>
-      <c r="B4" s="0" t="inlineStr">
+      <c r="B4" s="5" t="inlineStr">
         <is>
           <t>2008</t>
         </is>
       </c>
-      <c r="C4" s="0">
-        <v>1</v>
-      </c>
-      <c r="D4" s="0">
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="6">
         <v>0</v>
       </c>
     </row>
     <row outlineLevel="0" r="5">
-      <c r="A5" s="0">
+      <c r="A5" s="4">
         <v>13</v>
       </c>
-      <c r="B5" s="0" t="inlineStr">
+      <c r="B5" s="5" t="inlineStr">
         <is>
           <t>2010</t>
         </is>
       </c>
-      <c r="C5" s="0">
-        <v>1</v>
-      </c>
-      <c r="D5" s="0">
+      <c r="C5" s="4">
+        <v>1</v>
+      </c>
+      <c r="D5" s="6">
         <v>0</v>
       </c>
     </row>
     <row outlineLevel="0" r="6">
-      <c r="A6" s="0">
+      <c r="A6" s="4">
         <v>15</v>
       </c>
-      <c r="B6" s="0" t="inlineStr">
+      <c r="B6" s="5" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="C6" s="0">
-        <v>1</v>
-      </c>
-      <c r="D6" s="0">
+      <c r="C6" s="4">
+        <v>1</v>
+      </c>
+      <c r="D6" s="6">
         <v>0</v>
       </c>
     </row>
     <row outlineLevel="0" r="7">
-      <c r="A7" s="0">
+      <c r="A7" s="4">
         <v>16</v>
       </c>
-      <c r="B7" s="0" t="inlineStr">
+      <c r="B7" s="5" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="C7" s="0">
-        <v>1</v>
-      </c>
-      <c r="D7" s="0">
+      <c r="C7" s="4">
+        <v>1</v>
+      </c>
+      <c r="D7" s="6">
         <v>0</v>
       </c>
     </row>
     <row outlineLevel="0" r="8">
-      <c r="A8" s="0">
+      <c r="A8" s="4">
         <v>17</v>
       </c>
-      <c r="B8" s="0" t="inlineStr">
+      <c r="B8" s="5" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="C8" s="0">
-        <v>1</v>
-      </c>
-      <c r="D8" s="0">
+      <c r="C8" s="4">
+        <v>1</v>
+      </c>
+      <c r="D8" s="6">
         <v>0</v>
       </c>
     </row>
     <row outlineLevel="0" r="9">
-      <c r="A9" s="0">
+      <c r="A9" s="4">
         <v>18</v>
       </c>
-      <c r="B9" s="0" t="inlineStr">
+      <c r="B9" s="5" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="C9" s="0">
-        <v>1</v>
-      </c>
-      <c r="D9" s="0">
+      <c r="C9" s="4">
+        <v>1</v>
+      </c>
+      <c r="D9" s="6">
         <v>0</v>
       </c>
     </row>
     <row outlineLevel="0" r="10">
-      <c r="A10" s="0">
+      <c r="A10" s="4">
         <v>19</v>
       </c>
-      <c r="B10" s="0" t="inlineStr">
+      <c r="B10" s="5" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="C10" s="0">
-        <v>1</v>
-      </c>
-      <c r="D10" s="0">
+      <c r="C10" s="4">
+        <v>1</v>
+      </c>
+      <c r="D10" s="6">
         <v>0</v>
       </c>
     </row>
     <row outlineLevel="0" r="11">
-      <c r="A11" s="0">
+      <c r="A11" s="4">
         <v>20</v>
       </c>
-      <c r="B11" s="0" t="inlineStr">
+      <c r="B11" s="5" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="C11" s="0">
-        <v>1</v>
-      </c>
-      <c r="D11" s="0">
+      <c r="C11" s="4">
+        <v>1</v>
+      </c>
+      <c r="D11" s="6">
         <v>0</v>
       </c>
     </row>
     <row outlineLevel="0" r="12">
-      <c r="A12" s="0">
+      <c r="A12" s="4">
         <v>21</v>
       </c>
-      <c r="B12" s="0" t="inlineStr">
+      <c r="B12" s="5" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="C12" s="0">
-        <v>1</v>
-      </c>
-      <c r="D12" s="0">
+      <c r="C12" s="4">
+        <v>1</v>
+      </c>
+      <c r="D12" s="6">
         <v>0</v>
       </c>
     </row>

--- a/data/Cam_ElectionSeason.xlsx
+++ b/data/Cam_ElectionSeason.xlsx
@@ -493,7 +493,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -705,6 +705,22 @@
         <v>0</v>
       </c>
     </row>
+    <row outlineLevel="0" r="13">
+      <c r="A13" s="4">
+        <v>22</v>
+      </c>
+      <c r="B13" s="5" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="C13" s="4">
+        <v>1</v>
+      </c>
+      <c r="D13" s="6">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
